--- a/Results/Supplementary Data/Enrichment Analysis/COG.xlsx
+++ b/Results/Supplementary Data/Enrichment Analysis/COG.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,41 +432,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D2">
-        <v>0.001668210190185373</v>
+        <v>0.001129701561034908</v>
       </c>
       <c r="E2">
-        <v>2.655709735086628</v>
+        <v>2.125921628825239</v>
       </c>
       <c r="F2">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="G2">
-        <v>2743</v>
+        <v>1303</v>
       </c>
       <c r="H2">
-        <v>4.987876688604088</v>
+        <v>12.90106951871658</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J2">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K2">
-        <v>11.53846153846154</v>
+        <v>22.48062015503876</v>
       </c>
       <c r="L2">
-        <v>0.02506775259694802</v>
+        <v>0.02372373278173307</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -476,41 +476,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.00220329241253217</v>
+        <v>0.007286434505186854</v>
       </c>
       <c r="E3">
-        <v>2.517446484042745</v>
+        <v>2.263744626979469</v>
       </c>
       <c r="F3">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="G3">
-        <v>2798</v>
+        <v>1303</v>
       </c>
       <c r="H3">
-        <v>3.082784897817804</v>
+        <v>12.90106951871658</v>
       </c>
       <c r="I3">
         <v>16</v>
       </c>
       <c r="J3">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="K3">
-        <v>6.666666666666667</v>
+        <v>24.24242424242424</v>
       </c>
       <c r="L3">
-        <v>0.04847243307570773</v>
+        <v>0.07650756230446197</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -520,35 +520,35 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>U</t>
         </is>
       </c>
       <c r="D4">
-        <v>0.002278886599722547</v>
+        <v>0.08101831913441694</v>
       </c>
       <c r="E4">
-        <v>2.193770560782514</v>
+        <v>2.783686768892632</v>
       </c>
       <c r="F4">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G4">
-        <v>2743</v>
+        <v>1363</v>
       </c>
       <c r="H4">
-        <v>4.987876688604088</v>
+        <v>8.890374331550802</v>
       </c>
       <c r="I4">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="J4">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>9.58904109589041</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="L4">
-        <v>0.02506775259694802</v>
+        <v>0.7786540723927418</v>
       </c>
     </row>
     <row r="5">
@@ -564,41 +564,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="D5">
-        <v>0.006938838880278128</v>
+        <v>0.09772690053528493</v>
       </c>
       <c r="E5">
-        <v>2.751415419194648</v>
+        <v>1.439891098412798</v>
       </c>
       <c r="F5">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="G5">
-        <v>2798</v>
+        <v>1363</v>
       </c>
       <c r="H5">
-        <v>3.082784897817804</v>
+        <v>8.890374331550802</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J5">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="K5">
-        <v>7.518796992481203</v>
+        <v>11.79775280898876</v>
       </c>
       <c r="L5">
-        <v>0.07632722768305941</v>
+        <v>0.7786540723927418</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -608,35 +608,35 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.04472351913659318</v>
+        <v>0.1185009835891778</v>
       </c>
       <c r="E6">
-        <v>1.906808083485467</v>
+        <v>1.592713396170065</v>
       </c>
       <c r="F6">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G6">
-        <v>2743</v>
+        <v>1363</v>
       </c>
       <c r="H6">
-        <v>4.987876688604088</v>
+        <v>8.890374331550802</v>
       </c>
       <c r="I6">
         <v>11</v>
       </c>
       <c r="J6">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="K6">
-        <v>8.800000000000001</v>
+        <v>13.09523809523809</v>
       </c>
       <c r="L6">
-        <v>0.32797247366835</v>
+        <v>0.7786540723927418</v>
       </c>
     </row>
     <row r="7">
@@ -652,41 +652,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.0704313681890278</v>
+        <v>0.1188360675411474</v>
       </c>
       <c r="E7">
-        <v>1.538652551595264</v>
+        <v>1.513656693750188</v>
       </c>
       <c r="F7">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="G7">
-        <v>2743</v>
+        <v>1303</v>
       </c>
       <c r="H7">
-        <v>4.987876688604088</v>
+        <v>12.90106951871658</v>
       </c>
       <c r="I7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J7">
-        <v>233</v>
+        <v>64</v>
       </c>
       <c r="K7">
-        <v>7.171314741035856</v>
+        <v>17.94871794871795</v>
       </c>
       <c r="L7">
-        <v>0.3873725250396529</v>
+        <v>0.6788376528750951</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -696,35 +696,35 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D8">
-        <v>0.07938215454067626</v>
+        <v>0.1589361183393144</v>
       </c>
       <c r="E8">
-        <v>2.125446258185292</v>
+        <v>1.297951647442091</v>
       </c>
       <c r="F8">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="G8">
-        <v>2798</v>
+        <v>1303</v>
       </c>
       <c r="H8">
-        <v>3.082784897817804</v>
+        <v>12.90106951871658</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J8">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="K8">
-        <v>6.122448979591836</v>
+        <v>15.72327044025157</v>
       </c>
       <c r="L8">
-        <v>0.5821357999649592</v>
+        <v>0.6788376528750951</v>
       </c>
     </row>
     <row r="9">
@@ -740,41 +740,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D9">
-        <v>0.144234900875144</v>
+        <v>0.1761187442473799</v>
       </c>
       <c r="E9">
-        <v>2.075867107684781</v>
+        <v>1.980388384398485</v>
       </c>
       <c r="F9">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="G9">
-        <v>2798</v>
+        <v>1363</v>
       </c>
       <c r="H9">
-        <v>3.082784897817804</v>
+        <v>8.890374331550802</v>
       </c>
       <c r="I9">
         <v>4</v>
       </c>
       <c r="J9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="K9">
-        <v>6.060606060606061</v>
+        <v>16</v>
       </c>
       <c r="L9">
-        <v>0.7932919548132917</v>
+        <v>0.7786540723927418</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -784,35 +784,35 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D10">
-        <v>0.185687198899659</v>
+        <v>0.19395361510717</v>
       </c>
       <c r="E10">
-        <v>1.627068110092228</v>
+        <v>2.268526990818829</v>
       </c>
       <c r="F10">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="G10">
-        <v>2798</v>
+        <v>1303</v>
       </c>
       <c r="H10">
-        <v>3.082784897817804</v>
+        <v>12.90106951871658</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J10">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="K10">
-        <v>4.8</v>
+        <v>25</v>
       </c>
       <c r="L10">
-        <v>0.8170236751584995</v>
+        <v>0.6788376528750951</v>
       </c>
     </row>
     <row r="11">
@@ -828,35 +828,35 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="D11">
-        <v>0.3027244733326492</v>
+        <v>0.19395361510717</v>
       </c>
       <c r="E11">
-        <v>1.236174078326722</v>
+        <v>2.268526990818829</v>
       </c>
       <c r="F11">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="G11">
-        <v>2743</v>
+        <v>1303</v>
       </c>
       <c r="H11">
-        <v>4.987876688604088</v>
+        <v>12.90106951871658</v>
       </c>
       <c r="I11">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J11">
-        <v>172</v>
+        <v>9</v>
       </c>
       <c r="K11">
-        <v>6.010928961748633</v>
+        <v>25</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6788376528750951</v>
       </c>
     </row>
     <row r="12">
@@ -872,35 +872,35 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D12">
-        <v>0.3077052247540024</v>
+        <v>0.2515715782037913</v>
       </c>
       <c r="E12">
-        <v>1.466146658618671</v>
+        <v>1.360832045966211</v>
       </c>
       <c r="F12">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="G12">
-        <v>2798</v>
+        <v>1363</v>
       </c>
       <c r="H12">
-        <v>3.082784897817804</v>
+        <v>8.890374331550802</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J12">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="K12">
-        <v>4.395604395604396</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.7786540723927418</v>
       </c>
     </row>
     <row r="13">
@@ -916,41 +916,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
       <c r="D13">
-        <v>0.3284195846300687</v>
+        <v>0.2523599168116903</v>
       </c>
       <c r="E13">
-        <v>1.255760544744066</v>
+        <v>1.389515938292514</v>
       </c>
       <c r="F13">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="G13">
-        <v>2798</v>
+        <v>1363</v>
       </c>
       <c r="H13">
-        <v>3.082784897817804</v>
+        <v>8.890374331550802</v>
       </c>
       <c r="I13">
         <v>8</v>
       </c>
       <c r="J13">
-        <v>204</v>
+        <v>60</v>
       </c>
       <c r="K13">
-        <v>3.773584905660377</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.7786540723927418</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -960,35 +960,35 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D14">
-        <v>0.3633463993205615</v>
+        <v>0.2896993546735893</v>
       </c>
       <c r="E14">
-        <v>1.252726605668749</v>
+        <v>2.064317940212986</v>
       </c>
       <c r="F14">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G14">
-        <v>2743</v>
+        <v>1363</v>
       </c>
       <c r="H14">
-        <v>4.987876688604088</v>
+        <v>8.890374331550802</v>
       </c>
       <c r="I14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J14">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="K14">
-        <v>6.122448979591836</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.7786540723927418</v>
       </c>
     </row>
     <row r="15">
@@ -1004,41 +1004,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D15">
-        <v>0.4136425332255785</v>
+        <v>0.3202684446775707</v>
       </c>
       <c r="E15">
-        <v>1.975210380259156</v>
+        <v>1.213014643863831</v>
       </c>
       <c r="F15">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="G15">
-        <v>2798</v>
+        <v>1363</v>
       </c>
       <c r="H15">
-        <v>3.082784897817804</v>
+        <v>8.890374331550802</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J15">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="K15">
-        <v>5.882352941176471</v>
+        <v>10.43478260869565</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.7786540723927418</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1048,35 +1048,35 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D16">
-        <v>0.4321642790425618</v>
+        <v>0.3337088881683179</v>
       </c>
       <c r="E16">
-        <v>1.275528822256645</v>
+        <v>1.257486371421274</v>
       </c>
       <c r="F16">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G16">
-        <v>2743</v>
+        <v>1363</v>
       </c>
       <c r="H16">
-        <v>4.987876688604088</v>
+        <v>8.890374331550802</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J16">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="K16">
-        <v>6.25</v>
+        <v>10.81081081081081</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.7786540723927418</v>
       </c>
     </row>
     <row r="17">
@@ -1092,35 +1092,35 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D17">
-        <v>0.4464494191576983</v>
+        <v>0.3481160975922231</v>
       </c>
       <c r="E17">
-        <v>1.073904498137928</v>
+        <v>1.185516819078108</v>
       </c>
       <c r="F17">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="G17">
-        <v>2743</v>
+        <v>1303</v>
       </c>
       <c r="H17">
-        <v>4.987876688604088</v>
+        <v>12.90106951871658</v>
       </c>
       <c r="I17">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J17">
-        <v>250</v>
+        <v>69</v>
       </c>
       <c r="K17">
-        <v>5.303030303030303</v>
+        <v>14.81481481481481</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.871744686039319</v>
       </c>
     </row>
     <row r="18">
@@ -1136,35 +1136,35 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D18">
-        <v>0.4717884588764333</v>
+        <v>0.3672871081847938</v>
       </c>
       <c r="E18">
-        <v>1.068957294896031</v>
+        <v>1.200593671710654</v>
       </c>
       <c r="F18">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="G18">
-        <v>2743</v>
+        <v>1303</v>
       </c>
       <c r="H18">
-        <v>4.987876688604088</v>
+        <v>12.90106951871658</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J18">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>5.291005291005291</v>
+        <v>15</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.871744686039319</v>
       </c>
     </row>
     <row r="19">
@@ -1180,35 +1180,35 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D19">
-        <v>0.5314197836887247</v>
+        <v>0.3754501899472095</v>
       </c>
       <c r="E19">
-        <v>1.027003273975501</v>
+        <v>1.357359944127006</v>
       </c>
       <c r="F19">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="G19">
-        <v>2743</v>
+        <v>1303</v>
       </c>
       <c r="H19">
-        <v>4.987876688604088</v>
+        <v>12.90106951871658</v>
       </c>
       <c r="I19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J19">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="K19">
-        <v>5.109489051094891</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.871744686039319</v>
       </c>
     </row>
     <row r="20">
@@ -1224,35 +1224,35 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>I</t>
         </is>
       </c>
       <c r="D20">
-        <v>0.5327254862703816</v>
+        <v>0.4460234648113027</v>
       </c>
       <c r="E20">
-        <v>1.032980426609396</v>
+        <v>1.145109333242366</v>
       </c>
       <c r="F20">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="G20">
-        <v>2798</v>
+        <v>1363</v>
       </c>
       <c r="H20">
-        <v>3.082784897817804</v>
+        <v>8.890374331550802</v>
       </c>
       <c r="I20">
         <v>6</v>
       </c>
       <c r="J20">
-        <v>183</v>
+        <v>54</v>
       </c>
       <c r="K20">
-        <v>3.174603174603174</v>
+        <v>10</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.9366492761037357</v>
       </c>
     </row>
     <row r="21">
@@ -1268,41 +1268,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>U</t>
         </is>
       </c>
       <c r="D21">
-        <v>0.5727292212411699</v>
+        <v>0.4521643602453145</v>
       </c>
       <c r="E21">
-        <v>0.9805416582702731</v>
+        <v>1.269842269292389</v>
       </c>
       <c r="F21">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="G21">
-        <v>2743</v>
+        <v>1303</v>
       </c>
       <c r="H21">
-        <v>4.987876688604088</v>
+        <v>12.90106951871658</v>
       </c>
       <c r="I21">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J21">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="K21">
-        <v>4.901960784313726</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.871744686039319</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1312,41 +1312,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D22">
-        <v>0.5755640402428228</v>
+        <v>0.4566281688777385</v>
       </c>
       <c r="E22">
-        <v>0.9979465538804854</v>
+        <v>1.064330160804326</v>
       </c>
       <c r="F22">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="G22">
-        <v>2798</v>
+        <v>1303</v>
       </c>
       <c r="H22">
-        <v>3.082784897817804</v>
+        <v>12.90106951871658</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J22">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="K22">
-        <v>3.076923076923077</v>
+        <v>13.5593220338983</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.871744686039319</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="D23">
-        <v>0.6178672911372749</v>
+        <v>0.5234448808748684</v>
       </c>
       <c r="E23">
-        <v>0.9429633216912124</v>
+        <v>1.031301779858562</v>
       </c>
       <c r="F23">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="G23">
-        <v>2798</v>
+        <v>1303</v>
       </c>
       <c r="H23">
-        <v>3.082784897817804</v>
+        <v>12.90106951871658</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J23">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="K23">
-        <v>2.91970802919708</v>
+        <v>13.23529411764706</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.9160285415310196</v>
       </c>
     </row>
     <row r="24">
@@ -1400,32 +1400,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D24">
-        <v>0.6673869517576687</v>
+        <v>0.5926473349243824</v>
       </c>
       <c r="E24">
-        <v>0.8935645066066932</v>
+        <v>0.9677367505784454</v>
       </c>
       <c r="F24">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="G24">
-        <v>2798</v>
+        <v>1363</v>
       </c>
       <c r="H24">
-        <v>3.082784897817804</v>
+        <v>8.890374331550802</v>
       </c>
       <c r="I24">
         <v>7</v>
       </c>
       <c r="J24">
-        <v>244</v>
+        <v>74</v>
       </c>
       <c r="K24">
-        <v>2.788844621513944</v>
+        <v>8.641975308641975</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -1434,7 +1434,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1444,41 +1444,41 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D25">
-        <v>0.679588325954892</v>
+        <v>0.6271795097815656</v>
       </c>
       <c r="E25">
-        <v>0.8773390680459885</v>
+        <v>0.9396865038897125</v>
       </c>
       <c r="F25">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="G25">
-        <v>2798</v>
+        <v>1303</v>
       </c>
       <c r="H25">
-        <v>3.082784897817804</v>
+        <v>12.90106951871658</v>
       </c>
       <c r="I25">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J25">
-        <v>213</v>
+        <v>93</v>
       </c>
       <c r="K25">
-        <v>2.73972602739726</v>
+        <v>12.26415094339623</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.9982839968530342</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1488,32 +1488,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D26">
-        <v>0.7420231952620291</v>
+        <v>0.6760909645486355</v>
       </c>
       <c r="E26">
-        <v>0.7586475561776955</v>
+        <v>0.9031078171389453</v>
       </c>
       <c r="F26">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G26">
-        <v>2743</v>
+        <v>1363</v>
       </c>
       <c r="H26">
-        <v>4.987876688604088</v>
+        <v>8.890374331550802</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J26">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="K26">
-        <v>3.846153846153846</v>
+        <v>8.176100628930818</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -1532,32 +1532,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D27">
-        <v>0.7803222363864387</v>
+        <v>0.7148030661385609</v>
       </c>
       <c r="E27">
-        <v>0.6652096613143147</v>
+        <v>0.8338820560207777</v>
       </c>
       <c r="F27">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="G27">
-        <v>2798</v>
+        <v>1363</v>
       </c>
       <c r="H27">
-        <v>3.082784897817804</v>
+        <v>8.890374331550802</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J27">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="K27">
-        <v>2.083333333333333</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -1566,7 +1566,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1576,35 +1576,35 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D28">
-        <v>0.8272225226379937</v>
+        <v>0.7566489339250489</v>
       </c>
       <c r="E28">
-        <v>0.6886377763583892</v>
+        <v>0.8415164934164956</v>
       </c>
       <c r="F28">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="G28">
-        <v>2798</v>
+        <v>1303</v>
       </c>
       <c r="H28">
-        <v>3.082784897817804</v>
+        <v>12.90106951871658</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J28">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="K28">
-        <v>2.185792349726776</v>
+        <v>11.20689655172414</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.9982839968530342</v>
       </c>
     </row>
     <row r="29">
@@ -1620,35 +1620,35 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D29">
-        <v>0.8422143966686026</v>
+        <v>0.7607232205466843</v>
       </c>
       <c r="E29">
-        <v>0.6419841111403785</v>
+        <v>0.810589759742963</v>
       </c>
       <c r="F29">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="G29">
-        <v>2743</v>
+        <v>1303</v>
       </c>
       <c r="H29">
-        <v>4.987876688604088</v>
+        <v>12.90106951871658</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J29">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="K29">
-        <v>3.296703296703297</v>
+        <v>10.81081081081081</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.9982839968530342</v>
       </c>
     </row>
     <row r="30">
@@ -1664,35 +1664,35 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D30">
-        <v>0.8506805325678566</v>
+        <v>0.7623041392617169</v>
       </c>
       <c r="E30">
-        <v>0.5896365245379168</v>
+        <v>0.7668665992471856</v>
       </c>
       <c r="F30">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="G30">
-        <v>2743</v>
+        <v>1303</v>
       </c>
       <c r="H30">
-        <v>4.987876688604088</v>
+        <v>12.90106951871658</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="K30">
-        <v>3.03030303030303</v>
+        <v>10.25641025641026</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.9982839968530342</v>
       </c>
     </row>
     <row r="31">
@@ -1708,35 +1708,35 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="D31">
-        <v>0.8608415597518839</v>
+        <v>0.8082096499141601</v>
       </c>
       <c r="E31">
-        <v>0.7250357431738332</v>
+        <v>0.7422614597964742</v>
       </c>
       <c r="F31">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="G31">
-        <v>2743</v>
+        <v>1303</v>
       </c>
       <c r="H31">
-        <v>4.987876688604088</v>
+        <v>12.90106951871658</v>
       </c>
       <c r="I31">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J31">
-        <v>231</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.9982839968530342</v>
       </c>
     </row>
     <row r="32">
@@ -1752,32 +1752,32 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D32">
-        <v>0.9103424726649305</v>
+        <v>0.8298273817605327</v>
       </c>
       <c r="E32">
-        <v>0.4126625802268678</v>
+        <v>0.7438370665633268</v>
       </c>
       <c r="F32">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="G32">
-        <v>2798</v>
+        <v>1363</v>
       </c>
       <c r="H32">
-        <v>3.082784897817804</v>
+        <v>8.890374331550802</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J32">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="K32">
-        <v>1.315789473684211</v>
+        <v>6.896551724137931</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -1786,7 +1786,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1796,32 +1796,32 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D33">
-        <v>0.9242884582112382</v>
+        <v>0.876083673801847</v>
       </c>
       <c r="E33">
-        <v>0.384558130651825</v>
+        <v>0.547317366111193</v>
       </c>
       <c r="F33">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G33">
-        <v>2743</v>
+        <v>1363</v>
       </c>
       <c r="H33">
-        <v>4.987876688604088</v>
+        <v>8.890374331550802</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -1840,32 +1840,32 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D34">
-        <v>0.9575574127504378</v>
+        <v>0.8948917141795257</v>
       </c>
       <c r="E34">
-        <v>0.4508021320438434</v>
+        <v>0.4415449980075243</v>
       </c>
       <c r="F34">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="G34">
-        <v>2798</v>
+        <v>1363</v>
       </c>
       <c r="H34">
-        <v>3.082784897817804</v>
+        <v>8.890374331550802</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="K34">
-        <v>1.470588235294118</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -1888,37 +1888,37 @@
         </is>
       </c>
       <c r="D35">
-        <v>0.9611309419736722</v>
+        <v>0.8992799514632982</v>
       </c>
       <c r="E35">
-        <v>0.5355496047927946</v>
+        <v>0.6969511444724783</v>
       </c>
       <c r="F35">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="G35">
-        <v>2743</v>
+        <v>1303</v>
       </c>
       <c r="H35">
-        <v>4.987876688604088</v>
+        <v>12.90106951871658</v>
       </c>
       <c r="I35">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J35">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="K35">
-        <v>2.830188679245283</v>
+        <v>9.565217391304348</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0.9982839968530342</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1928,32 +1928,32 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D36">
-        <v>0.9614920224067376</v>
+        <v>0.9058145426929419</v>
       </c>
       <c r="E36">
-        <v>0.3884375524744758</v>
+        <v>0.6570868180074734</v>
       </c>
       <c r="F36">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G36">
-        <v>2743</v>
+        <v>1363</v>
       </c>
       <c r="H36">
-        <v>4.987876688604088</v>
+        <v>8.890374331550802</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J36">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="K36">
-        <v>2.040816326530612</v>
+        <v>6.2015503875969</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -1962,7 +1962,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1972,32 +1972,32 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D37">
-        <v>0.9672583229733186</v>
+        <v>0.9252363256268845</v>
       </c>
       <c r="E37">
-        <v>0.4277490869331352</v>
+        <v>0.5968655291439433</v>
       </c>
       <c r="F37">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G37">
-        <v>2743</v>
+        <v>1363</v>
       </c>
       <c r="H37">
-        <v>4.987876688604088</v>
+        <v>8.890374331550802</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J37">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K37">
-        <v>2.255639097744361</v>
+        <v>5.660377358490566</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -2020,37 +2020,37 @@
         </is>
       </c>
       <c r="D38">
-        <v>0.9805782775719583</v>
+        <v>0.9692908821911069</v>
       </c>
       <c r="E38">
-        <v>0.2488331881278354</v>
+        <v>0.277710103833311</v>
       </c>
       <c r="F38">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="G38">
-        <v>2743</v>
+        <v>1303</v>
       </c>
       <c r="H38">
-        <v>4.987876688604088</v>
+        <v>12.90106951871658</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="K38">
-        <v>1.315789473684211</v>
+        <v>4</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>0.9982839968530342</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2064,28 +2064,28 @@
         </is>
       </c>
       <c r="D39">
-        <v>0.985404458335113</v>
+        <v>0.9763007780761409</v>
       </c>
       <c r="E39">
-        <v>0.4641067773887259</v>
+        <v>0.3436755796110197</v>
       </c>
       <c r="F39">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G39">
-        <v>2743</v>
+        <v>1363</v>
       </c>
       <c r="H39">
-        <v>4.987876688604088</v>
+        <v>8.890374331550802</v>
       </c>
       <c r="I39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J39">
-        <v>235</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>2.489626556016598</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -2108,28 +2108,28 @@
         </is>
       </c>
       <c r="D40">
-        <v>0.9910181972355516</v>
+        <v>0.9857544507026905</v>
       </c>
       <c r="E40">
-        <v>0.339164595411076</v>
+        <v>0.4322861672519648</v>
       </c>
       <c r="F40">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="G40">
-        <v>2798</v>
+        <v>1363</v>
       </c>
       <c r="H40">
-        <v>3.082784897817804</v>
+        <v>8.890374331550802</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J40">
-        <v>261</v>
+        <v>113</v>
       </c>
       <c r="K40">
-        <v>1.136363636363636</v>
+        <v>4.237288135593221</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -2138,7 +2138,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2148,41 +2148,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0.9969913225654305</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.3237099395795839</v>
       </c>
       <c r="F41">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="G41">
-        <v>2798</v>
+        <v>1303</v>
       </c>
       <c r="H41">
-        <v>3.082784897817804</v>
+        <v>12.90106951871658</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J41">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>0.9982839968530342</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2192,35 +2192,35 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>J</t>
         </is>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0.9982839968530342</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.4543108254559839</v>
       </c>
       <c r="F42">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="G42">
-        <v>2798</v>
+        <v>1303</v>
       </c>
       <c r="H42">
-        <v>3.082784897817804</v>
+        <v>12.90106951871658</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J42">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>6.741573033707865</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>0.9982839968530342</v>
       </c>
     </row>
     <row r="43">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="D43">
@@ -2246,112 +2246,24 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="G43">
-        <v>2798</v>
+        <v>1363</v>
       </c>
       <c r="H43">
-        <v>3.082784897817804</v>
+        <v>8.890374331550802</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Cat</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>144</v>
-      </c>
-      <c r="G44">
-        <v>2743</v>
-      </c>
-      <c r="H44">
-        <v>4.987876688604088</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>17</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Cat</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>89</v>
-      </c>
-      <c r="G45">
-        <v>2798</v>
-      </c>
-      <c r="H45">
-        <v>3.082784897817804</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>241</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
         <v>1</v>
       </c>
     </row>
